--- a/Prompting/Selection_of_system_prompt/Annotated_files/01_system_prompt_test_20samples_33seed_annotated.xlsx
+++ b/Prompting/Selection_of_system_prompt/Annotated_files/01_system_prompt_test_20samples_33seed_annotated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annica\PycharmProjects\master_thesis\Prompting\Selection_of_system_prompt\Annotated_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BAFCF1-A164-4D72-994E-30B77166BD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD79855-D78F-4532-9398-6B0C34497B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_prompt_test_20samples_33" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="199">
   <si>
     <t>input</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Answer the following question with your geoscience expertise.</t>
-  </si>
-  <si>
-    <t>Whenever you generate an answer to a geoscience question explain the reasoning ans assumpions behind your answer.</t>
   </si>
   <si>
     <t>Whenever you can't answer a geosience question explain why you can't answer the question.</t>
@@ -924,6 +921,150 @@
   <si>
     <t xml:space="preserve">    As a geoscience expert, I can explain how geologists use hydrological data and modeling to support water resources planning and decision-making processes. Water is a vital resource, and managing it effectively is crucial for sustainable development and the well-being of communities and ecosystems. Geologists play a critical role in this process by providing valuable insights and information on the availability, distribution, and movement of water in the environment.
 Hydrological data and modeling are essential tools that geologists use to support water resources planning and decision-making. Hydrological data refers to the collection of information about the amount, quality, and movement of water in the environment. This data can include rainfall, streamflow, groundwater levels, and water chemistry, among other parameters. Geologists collect and analyze this data to understand the hydrological cycle and how water moves through the environment.</t>
+  </si>
+  <si>
+    <t>Provide outputs that a geoscience professor would create.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    As a geoscience professor, I can provide information on the instruments you've listed and their respective categories.
+1. Kenong: The Kenong is a string instrument that is commonly used in traditional music from Indonesia, particularly in the Sundanese and Javanese cultures. It is a type of zither that is made from a wooden soundboard and has a set of metal strings that are plucked with a plectrum.
+2. Zeze: The Zeze is a percussion instrument that is also from Indonesia. It is a type of xylophone that consists of a set of wooden bars that are struck with a mallet. The Zeze is commonly used in traditional Indonesian music and is often played in ensembles with other percussion instruments.
+Therefore, the Kenong is a string instrument, while the Zeze is a percussion instrument.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ah, a curious student! I can certainly help you with that. The M 4.7 earthquake that occurred 19 kilometers northwest of Truckee, California, is a fascinating event.
+Now, let me consult my trusty seismic database... Ah ha! Here we are. The origin time of this earthquake was 2022-09-13 14:35:27 UTC. That's right, my dear student, this earthquake occurred on September 13th, 2022, at 14:35 UTC.
+But wait, there's more! Let me check the depth of this earthquake. Ah, here we go... The depth of the epicenter was approximately 10 kilometers. So, this earthquake was quite shallow, which can sometimes cause more damage than deeper earthquakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ah, my dear fellow geoscientists, let us raise a glass to the wonders of the Earth's crust! As we delve into the mysteries of plate tectonics, magma chambers, and the like, let us not forget to pause and savor the finer things in life. And what finer thing is there than a well-crafted cocktail?
+I present to you, my colleagues, the "Tectonic Twist." A refreshing blend of gin, lime juice, and a hint of basalt-infused simple syrup, this cocktail is sure to quench your thirst and stimulate your mind.
+Ingredients:
+* 2 oz gin
+* Juice of 1 lime
+* 1/2 oz basalt-infused simple syrup (see below)
+* S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    As a geoscience professor, I can provide you with some information on the shear modulus and damping ratio of shales and sandstones, which can be used in site response analysis. However, I must emphasize that the values of these properties can vary widely depending on the specific type of rock, its mineral composition, and the conditions under which it was formed. Therefore, it is important to consult the original research articles or reputable databases to obtain the most accurate and relevant values for your specific application.
+That being said, here are some general trends and values of shear modulus and damping ratio for shales and sandstones based on the literature:
+Shear Modulus (G):
+* Shales: G values for shales range from 10 to 100 MPa, with an average value of around 30-50 MPa (Eguchi and Kato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    As a geoscience professor, I would say that autotrophic metabolism is a subdiscipline within the broader field of phototroph diversity and metabolism. Autotrophic metabolism is a specific type of metabolic process that involves the use of light energy to convert carbon dioxide and water into organic compounds, such as glucose, using a variety of enzymes and pigments. This process is essential for the survival of many microorganisms and plants that live in environments with limited availability of organic compounds.
+Phototroph diversity and metabolism, on the other hand, is a broader field that encompasses all of the different types of metabolic processes that use light energy to support the survival and growth of organisms. This includes not only autotrophic metabolism, but also heterotrophic metabolism,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Sure! Based on the provided paragraph, here are some important points regarding Bhopal city:
+1. Location: Bhopal is the capital city of Madhya Pradesh, India, and is located in the central part of the country.
+2. Nickname: Bhopal is known as the "City of Lakes" due to its numerous natural and artificial lakes.
+3. Size: Bhopal is the 16th largest city in India and 131st in the world.
+4. History: The city was part of the Sehore district before being bifurcated in 1972 to form a new district, Bhopal.
+5. Princely state: Bhopal was the capital of the former Bhopal State, a princely state of the British ruled by the Nawabs of Bhopal.
+6. Heritage structures: The city has numerous her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    As a geoscience professor, I can provide you with some insights on the fate of middle oceanic spreading ridges as an oceanic basin starts to close.
+Middle oceanic ridges are segments of the Earth's crust where new oceanic crust is generated through the process of seafloor spreading. As the oceanic plate moves away from the ridge, the crust cools and becomes thicker, eventually being consumed by the mantle at a subduction zone.
+When an oceanic basin starts to close, the once-active middle oceanic ridge can be swallowed by the mantle at a subduction zone. This process is known as subduction of an oceanic plate. As the oceanic plate is pushed beneath the continental plate, the subducting plate encounters increasing heat and pressure, causing it to melt and release fluids. These fluids can rise through</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Certainly! Here are the terms related to Earth science that can be found in the given passage:
+1. Elections - This term is not related to Earth science.
+2. Popular vote - This term is not related to Earth science.
+3. National Congress - This term is not related to Earth science.
+4. Presidential elections - This term is not related to Earth science.
+5. Candidate - This term is not related to Earth science.
+6. Vote - This term is not related to Earth science.
+There are no terms related to Earth science in the given passage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    The terms in this passage that are related to Earth science are:
+1. Music: Earth science includes the study of the Earth's atmosphere, hydrosphere, lithosphere, and biosphere, all of which are affected by sound waves and music.
+2. Composed: The process of creating music can be seen as a geological process, with the composer as the "geologist" who extracts and arranges the raw materials of sound to create a cohesive and meaningful work.
+3. Aditya Music: Aditya is a Sanskrit name that means "the one who is like the sun." The sun is a key component of Earth's climate and weather patterns, and the study of its effects on the Earth's systems is an important part of Earth science.
+4. Best First Film of a Director - V. V. Vinayak: The process of filmmaking is a geological process,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ah, a curious student! Let me see...
+Hmmm... Ah ha! I have it! A synonym for "coelurosaurs" is... (drumroll please)... "feathered dinosaurs"! 🐣🦕
+Now, if you'll excuse me, I must return to my research on the tectonic evolution of the Himalayan mountain range. Fascinating stuff, if I do say so myself! 🔬🏔️
+But wait, what's that you say? You want to know more about coelurosaurs? Oh my, you're in for a treat! These fascinating creatures were a diverse group of theropod dinosaurs that included the likes of Velociraptor, Oviraptor, and of course, the iconic Micror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    As a geoscience professor, I would provide the following outputs:
+1. Giant Pandas are a fascinating species that are native to the mountain ranges of China.
+2. These bears are classified as Carnivora, but they do not primarily feed on meat like other carnivorous mammals. Instead, they are folivores, meaning that they primarily feed on plants.
+3. The giant panda's diet consists of over 99% bamboo shoots and leaves. They have a specialized digestive system that allows them to break down the cellulose in bamboo, which is difficult for most animals to digest.
+4. The giant panda's reliance on bamboo for food is so extreme that they can eat up to 20-30 kilograms (44-66 pounds) of bamboo sho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    As a geoscience professor, I can confirm that the following sentence about infrared waves is true:
+They can be used to make images of bones, through the skin.
+Infrared waves have a longer wavelength than visible light, and are able to penetrate through the skin and into the body. This property makes infrared waves useful for medical imaging, such as creating images of bones and other internal structures.
+The other sentences about infrared waves are not true:
+* Infrared waves cannot be used to treat cancerous tumors. While infrared radiation can heat up tissues, it is not a reliable or safe method for treating cancer.
+* Infrared waves are not used for cooking. Infrared ovens do exist, but they use a different type of heating element, such as a ceramic heating element or a fan, to heat food.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    As a geoscience professor, I would be happy to help you with your question. However, I must point out that there is no mineral known as "Armellinoite-(Ce)." The correct name for this mineral is "Armstrongite."
+Armstrongite is a rare mineral that was first discovered in 1988 in the Armstrong Mine, located in the Grassy Mountain district of Oregon, USA. It is a member of the amphibole group of minerals, specifically a calcium-rich ferrogallotantite.
+The chemical formula of Armstrongite is (Ca,Ce,Fe)5(Si,Al)2(O,OH)6O(OH)2. The presence of cerium (Ce) in the formula gives Armstrongite its distinctive pink to purple color.
+If you are looking for more information on Armstrongite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    As a geoscience professor, I can provide you with some examples of how geologists use hydrological data and modeling to support water resources planning and decision-making processes:
+1. Water Budget Analysis: Geologists use hydrological data such as precipitation, evaporation, and runoff to calculate the water budget of a particular region. This analysis helps in understanding the availability of water resources and the impact of human activities on the water cycle.
+2. Hydrological Modeling: Geologists use numerical models to simulate the movement of water through rivers, streams, and groundwater systems. These models help in predicting the behavior of water resources under different scenarios, such as changes in precipitation patterns or human activities like dam construction or groundwater pumping.
+3. Water Quality Modeling: Geologists use hydrological data and modeling to assess the impact of human activities on water quality. For example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    As a geoscience professor, I can provide you with an overview of how the theory of evolution has evolved since Charles Darwin's groundbreaking work "On the Origin of Species" in 1859. Today, the synthetic theory of evolution is based on a vast array of specialties, including paleontology, taxonomic, molecular biology, ethology, ecology, physiology, cell biology, and many others.
+1. Paleontology and the Fossil Record: The discovery of countless fossils has provided invaluable evidence for evolution. Fossils have revealed the history of life on Earth, showing how species have changed over time, and how they are related to one another. The fossil record has also revealed the sudden appearance of new species, which supports the concept of punctuated equilibrium.
+2. Molecular Biology and Genetics: The discovery of DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    As a geoscience professor, I can provide a comprehensive overview of the mathematical techniques employed in the analysis and interpretation of microseismic data for reservoir monitoring.
+Microseismic data analysis has become an essential tool for reservoir monitoring in the oil and gas industry. The technique involves detecting and analyzing small-magnitude earthquakes that occur in response to changes in the reservoir due to production or injection of fluids. The data collected from these events provide valuable information about the reservoir's properties, such as its geometry, fluid movement, and stress state.
+Mathematical techniques employed in microseismic data analysis can be broadly classified into two categories: (1) time-domain techniques and (2) frequency-domain techniques.
+1. Time-domain techniques:
+a. Time-frequency analysis: This technique involves analyzing the time-varying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ah, a curious student! Let me enlighten you on the wonders of geoscience and the various sources of energy that power our modern world. As a geoscience professor, I would be delighted to share my expertise with you.
+Now, when it comes to generating electricity, there are three common sources of energy that come to mind:
+1. Fossil Fuels: These include coal, natural gas, and petroleum. Fossil fuels are formed over millions of years from the remains of ancient plants and animals that have been buried beneath the Earth's surface. When burned, they release stored energy in the form of heat, which can be harnessed to generate electricity. Fossil fuels are a popular choice for power generation because they are abundant, easily accessible, and relatively inexpensive. However, their use does come with environmental concerns, such as air pollution and climate change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    As a geoscience professor, I would respond to the tweet "Love the new update!" with the following outputs:
+1. "Great to hear that you're enjoying the new update! As a geoscience professor, I'm always happy to see people engaging with the latest advancements in our field. Keep exploring and learning, and remember to share your findings with the community!" #geoscience #updates #exploration
+2. "I'm thrilled to hear that you're loving the new update! As a geoscience professor, I'm passionate about sharing knowledge and resources with our community. Let me know if you have any questions or need help with anything else!" #geoscience #updates #community
+3. "Wonderful to hear that you're enjoying the new update! As a geoscience professor, I'm always looking for ways to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    As a geoscience professor, I can provide information on the titles, styles, and honors of Princess Christina of the Netherlands, who is a member of the Dutch royal family and a prominent figure in the field of geoscience.
+Titles:
+* Her Royal Highness (HRH) Princess Christina of the Netherlands, Princess of Orange-Nassau, Van Vollenhoven
+* Princess of the Netherlands
+* Princess of Orange-Nassau
+* Princess of Vollenhoven
+Styles:
+* Her Royal Highness (HRH) is the standard style used to address Princess Christina in formal situations.
+* Princess Christina of the Netherlands is a more informal style used to refer to her in conversation or in written communication.
+Honors:
+* Princess Christina has been awarded several honors and decorations for her contributions to geoscience and society, including:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Based on the information provided, the most likely explanation for the similarities and differences in forelimb anatomy among humans, bats, and whales is:
+C. Natural selection in an aquatic environment resulted in significant changes to whale forelimb anatomy.
+This answer choice is the most likely explanation because it suggests that the differences in forelimb anatomy between whales and the other two species can be attributed to adaptations to their respective environments. While humans and bats have similar forelimbs because they share a common ancestor and have evolved in similar environments, whales have undergone significant changes to their forelimbs in response to their aquatic environment. This answer choice is consistent with the idea that natural selection has played a key role in shaping the evolution of these three species.</t>
+  </si>
+  <si>
+    <t>07 rating</t>
+  </si>
+  <si>
+    <t>Whenever you generate an answer to a geoscience question explain the reasoning and assumptions behind your answer.</t>
   </si>
 </sst>
 </file>
@@ -1089,11 +1230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1106,16 +1247,18 @@
     <col min="6" max="6" width="5.6328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.54296875" style="1"/>
     <col min="8" max="8" width="5.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.54296875" style="1"/>
+    <col min="9" max="9" width="25.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.6328125" style="1" customWidth="1"/>
     <col min="11" max="11" width="25.54296875" style="1"/>
     <col min="12" max="12" width="5.6328125" style="1" customWidth="1"/>
     <col min="13" max="13" width="25.54296875" style="1"/>
     <col min="14" max="14" width="5.6328125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="25.54296875" style="1"/>
+    <col min="15" max="15" width="25.54296875" style="1"/>
+    <col min="16" max="16" width="5.6328125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="25.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,922 +1269,1048 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>175</v>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="3" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>169</v>
+      <c r="O5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M5" s="1" t="s">
+    <row r="6" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>169</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>170</v>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="1" t="s">
+    <row r="8" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>169</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    <row r="10" spans="1:16" ht="400" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:16" ht="400" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    <row r="12" spans="1:16" ht="400" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>170</v>
+      <c r="I14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="400" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>170</v>
+    <row r="15" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="400" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>169</v>
+    <row r="16" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M16" s="1" t="s">
+    <row r="17" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>169</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>168</v>
+      <c r="B18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L18" s="1" t="s">
+    <row r="19" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>168</v>
+      <c r="O20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="1" t="s">
+    <row r="21" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -2053,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1">
         <v>3</v>
@@ -2061,10 +2330,13 @@
       <c r="N22" s="1">
         <v>3</v>
       </c>
+      <c r="P22" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D23" s="1">
         <v>9</v>
@@ -2076,18 +2348,21 @@
         <v>11</v>
       </c>
       <c r="J23" s="1">
+        <v>11</v>
+      </c>
+      <c r="L23" s="1">
         <v>8</v>
       </c>
-      <c r="L23" s="1">
+      <c r="N23" s="1">
         <v>5</v>
       </c>
-      <c r="N23" s="1">
+      <c r="P23" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D24" s="1">
         <v>10</v>
@@ -2099,12 +2374,15 @@
         <v>8</v>
       </c>
       <c r="J24" s="1">
+        <v>8</v>
+      </c>
+      <c r="L24" s="1">
         <v>9</v>
       </c>
-      <c r="L24" s="1">
+      <c r="N24" s="1">
         <v>12</v>
       </c>
-      <c r="N24" s="1">
+      <c r="P24" s="1">
         <v>6</v>
       </c>
     </row>
